--- a/daten/CountryContinent.xlsx
+++ b/daten/CountryContinent.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sveti\Desktop\Diverses\GitProjects\R\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sveti\Desktop\Diverses\GitProjects\NumbeoR\daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C6227-8376-4EFE-B87D-DB556A7CC732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A20796-9568-4E5B-966F-F53C4884A969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E4D1276F-401E-4C2B-A5F7-F3CBCEC95313}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="247">
   <si>
     <t>CountryEnglish</t>
   </si>
@@ -748,6 +748,24 @@
   </si>
   <si>
     <t>Sudan</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Isle Of Man</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65271D9-6947-44F0-8EA4-97832397BB25}">
-  <dimension ref="A1:B234"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="N158" sqref="N158"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,8 +1757,8 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>72</v>
+      <c r="A79" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B79" t="s">
         <v>218</v>
@@ -1748,7 +1766,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
         <v>218</v>
@@ -1756,7 +1774,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" t="s">
         <v>218</v>
@@ -1764,7 +1782,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" t="s">
         <v>218</v>
@@ -1772,7 +1790,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
         <v>218</v>
@@ -1780,7 +1798,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
         <v>218</v>
@@ -1788,7 +1806,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="B85" t="s">
         <v>218</v>
@@ -1796,7 +1814,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
         <v>218</v>
@@ -1804,7 +1822,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
         <v>218</v>
@@ -1812,7 +1830,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
         <v>218</v>
@@ -1820,7 +1838,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
         <v>218</v>
@@ -1828,7 +1846,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
         <v>218</v>
@@ -1836,7 +1854,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B91" t="s">
         <v>218</v>
@@ -1844,7 +1862,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
         <v>218</v>
@@ -1852,7 +1870,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
         <v>218</v>
@@ -1860,7 +1878,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
         <v>218</v>
@@ -1868,7 +1886,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
         <v>218</v>
@@ -1876,7 +1894,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
         <v>218</v>
@@ -1884,7 +1902,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="B97" t="s">
         <v>218</v>
@@ -1892,7 +1910,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="B98" t="s">
         <v>218</v>
@@ -1900,7 +1918,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
         <v>218</v>
@@ -1908,7 +1926,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
         <v>218</v>
@@ -1916,7 +1934,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
         <v>218</v>
@@ -1924,7 +1942,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="B102" t="s">
         <v>218</v>
@@ -1932,7 +1950,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B103" t="s">
         <v>218</v>
@@ -1940,7 +1958,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B104" t="s">
         <v>218</v>
@@ -1948,15 +1966,15 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B105" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>96</v>
+      <c r="A106" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B106" t="s">
         <v>218</v>
@@ -1964,7 +1982,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B107" t="s">
         <v>218</v>
@@ -1972,7 +1990,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
         <v>218</v>
@@ -1980,7 +1998,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
         <v>218</v>
@@ -1988,31 +2006,31 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
         <v>219</v>
@@ -2020,7 +2038,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
         <v>219</v>
@@ -2028,7 +2046,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
         <v>219</v>
@@ -2036,7 +2054,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B116" t="s">
         <v>219</v>
@@ -2044,7 +2062,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
         <v>219</v>
@@ -2052,7 +2070,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
         <v>219</v>
@@ -2060,7 +2078,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B119" t="s">
         <v>219</v>
@@ -2068,7 +2086,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B120" t="s">
         <v>219</v>
@@ -2076,7 +2094,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B121" t="s">
         <v>219</v>
@@ -2084,7 +2102,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B122" t="s">
         <v>219</v>
@@ -2092,7 +2110,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B123" t="s">
         <v>219</v>
@@ -2100,7 +2118,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B124" t="s">
         <v>219</v>
@@ -2108,7 +2126,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B125" t="s">
         <v>219</v>
@@ -2116,7 +2134,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s">
         <v>219</v>
@@ -2124,7 +2142,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
         <v>219</v>
@@ -2132,7 +2150,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
         <v>219</v>
@@ -2140,7 +2158,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B129" t="s">
         <v>219</v>
@@ -2148,7 +2166,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B130" t="s">
         <v>219</v>
@@ -2156,7 +2174,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B131" t="s">
         <v>219</v>
@@ -2164,7 +2182,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B132" t="s">
         <v>219</v>
@@ -2172,7 +2190,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B133" t="s">
         <v>219</v>
@@ -2180,7 +2198,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B134" t="s">
         <v>219</v>
@@ -2188,7 +2206,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B135" t="s">
         <v>219</v>
@@ -2196,7 +2214,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B136" t="s">
         <v>219</v>
@@ -2204,7 +2222,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
         <v>219</v>
@@ -2212,7 +2230,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B138" t="s">
         <v>219</v>
@@ -2220,7 +2238,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B139" t="s">
         <v>219</v>
@@ -2228,7 +2246,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B140" t="s">
         <v>219</v>
@@ -2236,7 +2254,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s">
         <v>219</v>
@@ -2244,7 +2262,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B142" t="s">
         <v>219</v>
@@ -2252,7 +2270,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B143" t="s">
         <v>219</v>
@@ -2260,7 +2278,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B144" t="s">
         <v>219</v>
@@ -2268,7 +2286,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B145" t="s">
         <v>219</v>
@@ -2276,7 +2294,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="B146" t="s">
         <v>219</v>
@@ -2284,7 +2302,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B147" t="s">
         <v>219</v>
@@ -2292,7 +2310,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B148" t="s">
         <v>219</v>
@@ -2300,7 +2318,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="B149" t="s">
         <v>219</v>
@@ -2308,7 +2326,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B150" t="s">
         <v>219</v>
@@ -2316,7 +2334,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B151" t="s">
         <v>219</v>
@@ -2324,7 +2342,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B152" t="s">
         <v>219</v>
@@ -2332,7 +2350,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B153" t="s">
         <v>219</v>
@@ -2340,7 +2358,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="B154" t="s">
         <v>219</v>
@@ -2348,7 +2366,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B155" t="s">
         <v>219</v>
@@ -2356,7 +2374,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B156" t="s">
         <v>219</v>
@@ -2364,7 +2382,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B157" t="s">
         <v>219</v>
@@ -2372,7 +2390,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B158" t="s">
         <v>219</v>
@@ -2380,47 +2398,47 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B161" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B163" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B164" t="s">
         <v>220</v>
@@ -2428,7 +2446,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B165" t="s">
         <v>220</v>
@@ -2436,7 +2454,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="B166" t="s">
         <v>220</v>
@@ -2444,7 +2462,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B167" t="s">
         <v>220</v>
@@ -2452,7 +2470,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B168" t="s">
         <v>220</v>
@@ -2460,7 +2478,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B169" t="s">
         <v>220</v>
@@ -2468,7 +2486,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B170" t="s">
         <v>220</v>
@@ -2476,7 +2494,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B171" t="s">
         <v>220</v>
@@ -2484,7 +2502,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B172" t="s">
         <v>220</v>
@@ -2492,7 +2510,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B173" t="s">
         <v>220</v>
@@ -2500,7 +2518,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B174" t="s">
         <v>220</v>
@@ -2508,7 +2526,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B175" t="s">
         <v>220</v>
@@ -2516,7 +2534,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B176" t="s">
         <v>220</v>
@@ -2524,7 +2542,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B177" t="s">
         <v>220</v>
@@ -2532,7 +2550,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B178" t="s">
         <v>220</v>
@@ -2540,7 +2558,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B179" t="s">
         <v>220</v>
@@ -2548,7 +2566,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B180" t="s">
         <v>220</v>
@@ -2556,7 +2574,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B181" t="s">
         <v>220</v>
@@ -2564,7 +2582,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B182" t="s">
         <v>220</v>
@@ -2572,7 +2590,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B183" t="s">
         <v>220</v>
@@ -2580,7 +2598,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B184" t="s">
         <v>220</v>
@@ -2588,7 +2606,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B185" t="s">
         <v>220</v>
@@ -2596,7 +2614,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B186" t="s">
         <v>220</v>
@@ -2604,7 +2622,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B187" t="s">
         <v>220</v>
@@ -2612,7 +2630,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B188" t="s">
         <v>220</v>
@@ -2620,7 +2638,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B189" t="s">
         <v>220</v>
@@ -2628,7 +2646,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B190" t="s">
         <v>220</v>
@@ -2636,7 +2654,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="B191" t="s">
         <v>220</v>
@@ -2644,7 +2662,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="B192" t="s">
         <v>220</v>
@@ -2652,7 +2670,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B193" t="s">
         <v>220</v>
@@ -2660,7 +2678,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B194" t="s">
         <v>220</v>
@@ -2668,7 +2686,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="B195" t="s">
         <v>220</v>
@@ -2676,55 +2694,55 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B196" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="B197" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="B198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B199" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="B201" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B202" t="s">
         <v>221</v>
@@ -2732,7 +2750,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B203" t="s">
         <v>221</v>
@@ -2740,7 +2758,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B204" t="s">
         <v>221</v>
@@ -2748,7 +2766,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B205" t="s">
         <v>221</v>
@@ -2756,7 +2774,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B206" t="s">
         <v>221</v>
@@ -2764,7 +2782,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B207" t="s">
         <v>221</v>
@@ -2772,7 +2790,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B208" t="s">
         <v>221</v>
@@ -2780,7 +2798,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B209" t="s">
         <v>221</v>
@@ -2788,7 +2806,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B210" t="s">
         <v>221</v>
@@ -2796,7 +2814,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B211" t="s">
         <v>221</v>
@@ -2804,7 +2822,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B212" t="s">
         <v>221</v>
@@ -2812,7 +2830,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B213" t="s">
         <v>221</v>
@@ -2820,7 +2838,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B214" t="s">
         <v>221</v>
@@ -2828,7 +2846,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B215" t="s">
         <v>221</v>
@@ -2836,7 +2854,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B216" t="s">
         <v>221</v>
@@ -2844,7 +2862,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B217" t="s">
         <v>221</v>
@@ -2852,7 +2870,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B218" t="s">
         <v>221</v>
@@ -2860,55 +2878,55 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B225" t="s">
         <v>222</v>
@@ -2916,7 +2934,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B226" t="s">
         <v>222</v>
@@ -2924,7 +2942,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B227" t="s">
         <v>222</v>
@@ -2932,7 +2950,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B228" t="s">
         <v>222</v>
@@ -2940,7 +2958,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B229" t="s">
         <v>222</v>
@@ -2948,7 +2966,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B230" t="s">
         <v>222</v>
@@ -2956,7 +2974,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B231" t="s">
         <v>222</v>
@@ -2964,7 +2982,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B232" t="s">
         <v>222</v>
@@ -2972,17 +2990,65 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>210</v>
+      </c>
+      <c r="B233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>211</v>
+      </c>
+      <c r="B234" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>212</v>
+      </c>
+      <c r="B235" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>213</v>
+      </c>
+      <c r="B236" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>214</v>
+      </c>
+      <c r="B237" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>215</v>
+      </c>
+      <c r="B238" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="B239" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B240" t="s">
         <v>219</v>
       </c>
     </row>
